--- a/functions.xlsx
+++ b/functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mountanalytics-my.sharepoint.com/personal/mate_kaiser_mountanalytics_nl/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="11_AD4DB114E441178AC67DF48EFE13C680683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60CED8FA-3986-4ED7-BAE5-FA1FD0C561B8}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="11_AD4DB114E441178AC67DF48EFE13C680683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25E0F1B-EE4C-427E-B294-618AEEA349DA}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="1596" windowWidth="17304" windowHeight="9972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="176">
   <si>
     <t>AVG</t>
   </si>
@@ -556,6 +556,15 @@
   </si>
   <si>
     <t>DATETIME_DIFF([variable01], [variable02])</t>
+  </si>
+  <si>
+    <t>TO_VARCHAR</t>
+  </si>
+  <si>
+    <t>To_Varchar</t>
+  </si>
+  <si>
+    <t>CONVERT([variable01)]</t>
   </si>
 </sst>
 </file>
@@ -882,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C134801E-28CE-4A64-B0E0-5D0F69868297}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,6 +1770,23 @@
       </c>
       <c r="E51" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
